--- a/Pharmaceutical Name with specific id.xlsx
+++ b/Pharmaceutical Name with specific id.xlsx
@@ -9,6 +9,11 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$164</definedName>
   </definedNames>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgQ1NB09Av9Zd7etvplkweGwOU9Qw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1289,7 +1294,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1306,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1314,13 +1318,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,8 +1539,8 @@
     <col customWidth="1" hidden="1" min="1" max="1" width="29.89"/>
     <col customWidth="1" hidden="1" min="2" max="2" width="10.89"/>
     <col customWidth="1" min="3" max="4" width="47.0"/>
-    <col customWidth="1" hidden="1" min="5" max="6" width="12.0"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="6.22"/>
+    <col customWidth="1" min="5" max="6" width="12.0"/>
+    <col customWidth="1" min="7" max="7" width="6.22"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
@@ -1552,19 +1550,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1575,19 +1573,19 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1604,13 +1602,13 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1627,13 +1625,13 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1644,30 +1642,30 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1676,10 +1674,10 @@
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1688,19 +1686,19 @@
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1711,19 +1709,19 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1734,19 +1732,19 @@
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1757,19 +1755,19 @@
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1780,19 +1778,19 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1803,19 +1801,19 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1826,19 +1824,19 @@
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1849,19 +1847,19 @@
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1872,19 +1870,19 @@
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1895,19 +1893,19 @@
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1915,22 +1913,22 @@
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1938,22 +1936,22 @@
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1961,22 +1959,22 @@
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1984,22 +1982,22 @@
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2007,22 +2005,22 @@
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2030,22 +2028,22 @@
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2053,22 +2051,22 @@
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2076,22 +2074,22 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2099,22 +2097,22 @@
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2122,22 +2120,22 @@
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2145,22 +2143,22 @@
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2168,22 +2166,22 @@
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2191,22 +2189,22 @@
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2214,22 +2212,22 @@
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2237,22 +2235,22 @@
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2260,22 +2258,22 @@
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2283,22 +2281,22 @@
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2306,22 +2304,22 @@
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2329,22 +2327,22 @@
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2352,22 +2350,22 @@
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2375,22 +2373,22 @@
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2398,22 +2396,22 @@
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2421,22 +2419,22 @@
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2444,22 +2442,22 @@
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2467,22 +2465,22 @@
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2490,22 +2488,22 @@
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2513,22 +2511,22 @@
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2536,22 +2534,22 @@
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2559,22 +2557,22 @@
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2582,22 +2580,22 @@
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2605,22 +2603,22 @@
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2628,22 +2626,22 @@
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2651,22 +2649,22 @@
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2674,22 +2672,22 @@
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2697,22 +2695,22 @@
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2720,22 +2718,22 @@
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2743,22 +2741,22 @@
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2766,22 +2764,22 @@
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2789,22 +2787,22 @@
       <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2812,22 +2810,22 @@
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2835,22 +2833,22 @@
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2858,22 +2856,22 @@
       <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2881,22 +2879,22 @@
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2904,22 +2902,22 @@
       <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2927,22 +2925,22 @@
       <c r="A61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2950,22 +2948,22 @@
       <c r="A62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2973,22 +2971,22 @@
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2996,22 +2994,22 @@
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3019,22 +3017,22 @@
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3042,22 +3040,22 @@
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3065,22 +3063,22 @@
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3088,22 +3086,22 @@
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3111,22 +3109,22 @@
       <c r="A69" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3134,22 +3132,22 @@
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3157,22 +3155,22 @@
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3180,22 +3178,22 @@
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3203,22 +3201,22 @@
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3226,22 +3224,22 @@
       <c r="A74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3249,22 +3247,22 @@
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3272,22 +3270,22 @@
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3295,22 +3293,22 @@
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3318,22 +3316,22 @@
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3341,22 +3339,22 @@
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3364,22 +3362,22 @@
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3387,22 +3385,22 @@
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3410,22 +3408,22 @@
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3433,22 +3431,22 @@
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3456,22 +3454,22 @@
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3479,22 +3477,22 @@
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3502,22 +3500,22 @@
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3525,58 +3523,58 @@
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3584,22 +3582,22 @@
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3607,22 +3605,22 @@
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3630,22 +3628,22 @@
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3653,22 +3651,22 @@
       <c r="A93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3676,22 +3674,22 @@
       <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3699,43 +3697,43 @@
       <c r="A95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3744,13 +3742,13 @@
       <c r="D97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3758,7 +3756,7 @@
       <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3767,13 +3765,13 @@
       <c r="D98" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3781,22 +3779,22 @@
       <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3804,22 +3802,22 @@
       <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3827,22 +3825,22 @@
       <c r="A101" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3850,22 +3848,22 @@
       <c r="A102" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3873,22 +3871,22 @@
       <c r="A103" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3896,22 +3894,22 @@
       <c r="A104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3919,58 +3917,58 @@
       <c r="A105" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3978,22 +3976,22 @@
       <c r="A108" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="E108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4001,22 +3999,22 @@
       <c r="A109" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4024,22 +4022,22 @@
       <c r="A110" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4047,22 +4045,22 @@
       <c r="A111" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4070,22 +4068,22 @@
       <c r="A112" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4093,22 +4091,22 @@
       <c r="A113" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4116,58 +4114,58 @@
       <c r="A114" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="115" ht="18.75" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" ht="18.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4175,22 +4173,22 @@
       <c r="A117" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="E117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4198,22 +4196,22 @@
       <c r="A118" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4221,22 +4219,22 @@
       <c r="A119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="B119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4244,22 +4242,22 @@
       <c r="A120" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4267,22 +4265,22 @@
       <c r="A121" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4290,22 +4288,22 @@
       <c r="A122" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B122" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4313,22 +4311,22 @@
       <c r="A123" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4336,22 +4334,22 @@
       <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4359,22 +4357,22 @@
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>325</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4382,22 +4380,22 @@
       <c r="A126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4405,22 +4403,22 @@
       <c r="A127" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4428,71 +4426,71 @@
       <c r="A128" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="129" ht="18.75" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
     </row>
     <row r="130" ht="18.75" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3" t="s">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" ht="18.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4500,22 +4498,22 @@
       <c r="A132" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>341</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4523,22 +4521,22 @@
       <c r="A133" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4546,22 +4544,22 @@
       <c r="A134" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4569,22 +4567,22 @@
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4592,22 +4590,22 @@
       <c r="A136" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>351</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4615,22 +4613,22 @@
       <c r="A137" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>354</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4638,22 +4636,22 @@
       <c r="A138" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>356</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4661,22 +4659,22 @@
       <c r="A139" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="B139" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>358</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4684,58 +4682,58 @@
       <c r="A140" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="B140" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="141" ht="18.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3" t="s">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
     </row>
     <row r="142" ht="18.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4743,22 +4741,22 @@
       <c r="A143" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4766,58 +4764,58 @@
       <c r="A144" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>370</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="145" ht="18.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
     </row>
     <row r="146" ht="18.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4825,22 +4823,22 @@
       <c r="A147" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B147" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4848,22 +4846,22 @@
       <c r="A148" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4871,22 +4869,22 @@
       <c r="A149" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4894,22 +4892,22 @@
       <c r="A150" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4917,22 +4915,22 @@
       <c r="A151" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C151" s="3" t="s">
+      <c r="B151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4940,22 +4938,22 @@
       <c r="A152" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C152" s="3" t="s">
+      <c r="B152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4963,22 +4961,22 @@
       <c r="A153" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>391</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4986,22 +4984,22 @@
       <c r="A154" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5009,22 +5007,22 @@
       <c r="A155" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="F155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5032,22 +5030,22 @@
       <c r="A156" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B156" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="3" t="s">
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5055,22 +5053,22 @@
       <c r="A157" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="B157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="3" t="s">
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5078,22 +5076,22 @@
       <c r="A158" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C158" s="3" t="s">
+      <c r="B158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="3" t="s">
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5101,22 +5099,22 @@
       <c r="A159" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>404</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="3" t="s">
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5124,58 +5122,58 @@
       <c r="A160" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="B160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="161" ht="18.75" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3" t="s">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
     </row>
     <row r="162" ht="18.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="3" t="s">
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5183,22 +5181,22 @@
       <c r="A163" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C163" s="3" t="s">
+      <c r="B163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>414</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="E163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5206,25 +5204,861 @@
       <c r="A164" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="B164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>419</v>
       </c>
     </row>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$G$164"/>
   <drawing r:id="rId1"/>
